--- a/TestingFramework/TestData/TC_05_Create_Transform_View.xlsx
+++ b/TestingFramework/TestData/TC_05_Create_Transform_View.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="945" windowWidth="14805" windowHeight="7170" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="1005" windowWidth="14805" windowHeight="7110" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="studiologin" sheetId="18" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="94">
   <si>
     <t>Yes</t>
   </si>
@@ -324,9 +324,20 @@
     <t>age</t>
   </si>
   <si>
+    <t>code</t>
+  </si>
+  <si>
     <t xml:space="preserve">employeeName,CustomerDetails,customerName and
-employeeName,CustomerDetails,age
+id,CustomerDetails,age and
+code,CustomerDetails,age and
+code,CustomerDetails,age
 </t>
+  </si>
+  <si>
+    <t>Folder Name</t>
+  </si>
+  <si>
+    <t>Folder</t>
   </si>
 </sst>
 </file>
@@ -408,7 +419,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -444,23 +455,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -479,8 +479,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -885,30 +883,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="24.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="3"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -917,8 +916,9 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>62</v>
       </c>
@@ -931,176 +931,217 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>1</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
-        <v>7</v>
-      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="D8" s="7" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="7">
-        <v>27</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="7">
+        <v>27</v>
+      </c>
       <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1162,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M2" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1243,10 +1284,10 @@
       <c r="L3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="3" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1284,7 +1325,7 @@
       <c r="M4" s="12"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
@@ -1310,8 +1351,8 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
-      <c r="N5" s="16" t="s">
-        <v>90</v>
+      <c r="N5" s="14" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/TestingFramework/TestData/TC_05_Create_Transform_View.xlsx
+++ b/TestingFramework/TestData/TC_05_Create_Transform_View.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1005" windowWidth="14805" windowHeight="7110" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="1065" windowWidth="14805" windowHeight="7050" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="studiologin" sheetId="18" r:id="rId1"/>
@@ -1204,7 +1204,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
